--- a/data/trans_dic/P16A07-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P16A07-Edad-trans_dic.xlsx
@@ -543,7 +543,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido antidepresivos en las dos últimas semanas (tasa de respuesta: 99,9%)</t>
+          <t>Población que ha consumido medicamentos antidepresivos en las dos últimas semanas (tasa de respuesta: 99,9%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1802,7 +1802,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido antidepresivos en las dos últimas semanas (tasa de respuesta: 99,9%)</t>
+          <t>Población que ha consumido medicamentos antidepresivos en las dos últimas semanas (tasa de respuesta: 99,9%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/P16A07-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P16A07-Edad-trans_dic.xlsx
@@ -711,7 +711,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.001784470372074187</v>
+        <v>0.001795339539352734</v>
       </c>
       <c r="E5" s="5" t="n">
         <v>0</v>
@@ -720,28 +720,28 @@
         <v>0</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.009811816158519868</v>
+        <v>0.008392212357518216</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.002284386311086433</v>
+        <v>0.002300226331514798</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.002322871917208836</v>
+        <v>0.002311903090449101</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.006027811605279041</v>
+        <v>0.005960569521418742</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.004822925479242956</v>
+        <v>0.00486984302692516</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.002908196652391156</v>
+        <v>0.002367335292510647</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.002349315328554885</v>
+        <v>0.002360824664452875</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.005129308211472803</v>
+        <v>0.005833681442540147</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.009428097064044787</v>
+        <v>0.009660048356995597</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.01609614369488343</v>
+        <v>0.01944221375207103</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.01691007203021093</v>
+        <v>0.01495221630667744</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.02639134675220782</v>
+        <v>0.02454764659949141</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.03590783844544772</v>
+        <v>0.03315455197347496</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.01889666737011859</v>
+        <v>0.02123251231432903</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.01961409707601313</v>
+        <v>0.01949265895490564</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.05338280380669311</v>
+        <v>0.05444304940774617</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.01697278014283764</v>
+        <v>0.01677505937797869</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.01374182535594613</v>
+        <v>0.01352208798315441</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.0136522410328933</v>
+        <v>0.01357527403582853</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.02841434479539593</v>
+        <v>0.02792663882008973</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.006471127833364098</v>
+        <v>0.005507529957106231</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.007247718470403178</v>
+        <v>0.007355279049775637</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.003389825410081216</v>
+        <v>0.004864653881433942</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.00245813838779007</v>
+        <v>0.002096852286142206</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.01893232901391862</v>
+        <v>0.01897417481214897</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.01898173312602167</v>
+        <v>0.01893525568586286</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.0119413869715246</v>
+        <v>0.01200964966172793</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.01516846644212319</v>
+        <v>0.01451068898181134</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.01401466823277308</v>
+        <v>0.01420090186542469</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.0153328746014718</v>
+        <v>0.01515795101825451</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.009779117402127115</v>
+        <v>0.009747896546166597</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.01005658068166299</v>
+        <v>0.01023515070600222</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.02264692770186795</v>
+        <v>0.02176604505377544</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.03175700528959492</v>
+        <v>0.03022066085950718</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.01991366714231794</v>
+        <v>0.0216017668188422</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.02377119231707372</v>
+        <v>0.0222166057476108</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.04815034474672551</v>
+        <v>0.04711239493444733</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.05053944923484897</v>
+        <v>0.04855423366646189</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.03533858026375265</v>
+        <v>0.03610776775234452</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.04554224149248733</v>
+        <v>0.04529818985042155</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.02955359889082806</v>
+        <v>0.02967514364747018</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.03387601352528122</v>
+        <v>0.032592232202703</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.02365900812910886</v>
+        <v>0.02333307234881491</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.02966301203253386</v>
+        <v>0.03038862553651003</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.01285864099749042</v>
+        <v>0.01279504409608669</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.01895703964729089</v>
+        <v>0.01865572613999117</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.01248266140389457</v>
+        <v>0.01104142752493553</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.01215328211164921</v>
+        <v>0.01252980259654426</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.02443216245825588</v>
+        <v>0.02560096068264925</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.0601277520223072</v>
+        <v>0.06199907709405092</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.02911140421016174</v>
+        <v>0.02898316160161795</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.0320721684674808</v>
+        <v>0.03172394917743748</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.02131292983135882</v>
+        <v>0.02063608608070451</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.04244073231696492</v>
+        <v>0.04371667890107873</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.0233046043953602</v>
+        <v>0.02283047216480594</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.02539848260257727</v>
+        <v>0.02585700520281046</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.03627371365557915</v>
+        <v>0.03564930392849145</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.04965408390850837</v>
+        <v>0.04932160430735908</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.03418202444382936</v>
+        <v>0.03347187625323786</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.04286697862531089</v>
+        <v>0.03996884664420487</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.05421382423163333</v>
+        <v>0.05427165673070479</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1020531585741783</v>
+        <v>0.1037204245060443</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.05949899083562896</v>
+        <v>0.05889383815936532</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.05946498331413975</v>
+        <v>0.05998434814127335</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.04066287796328763</v>
+        <v>0.03980927401284898</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.07006422364527244</v>
+        <v>0.06952742355914734</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.04219200500271034</v>
+        <v>0.04191090627451628</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.04532265272915936</v>
+        <v>0.04570996643927114</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.02522298095528218</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.05336429418430351</v>
+        <v>0.05336429418430349</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.08927289061569139</v>
@@ -1105,7 +1105,7 @@
         <v>0.05540965317707242</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.06878115787883628</v>
+        <v>0.06878115787883629</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.01128318107889491</v>
+        <v>0.01113916783994079</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.02059825579387906</v>
+        <v>0.02056805837660191</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.01432460996819936</v>
+        <v>0.01464286544526162</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.03754205352406622</v>
+        <v>0.0371861898600777</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.0674807266838479</v>
+        <v>0.06737413300681937</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.07255369661022404</v>
+        <v>0.0706585377635994</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.06508293428234334</v>
+        <v>0.0657167568101787</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.06701286004063342</v>
+        <v>0.0683918705594169</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.0423622446065921</v>
+        <v>0.04261616969472743</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.05083697103530659</v>
+        <v>0.05005908162588021</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.04386690789492798</v>
+        <v>0.04416525667805771</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.05710386750305955</v>
+        <v>0.05746789279626408</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.03917298168993082</v>
+        <v>0.03926925846990039</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.05153568132601651</v>
+        <v>0.05301123435199165</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.03994197246802675</v>
+        <v>0.04015013263614135</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.07504785361576677</v>
+        <v>0.07705728628279301</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1170073251428089</v>
+        <v>0.1154652009090516</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1198092937263153</v>
+        <v>0.1176354806159496</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1101768629942998</v>
+        <v>0.1127850040051922</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.09918277164979206</v>
+        <v>0.1006227796448471</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.07029432284435425</v>
+        <v>0.0718684098995916</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.07914403344242073</v>
+        <v>0.07908554432502045</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.07101220721131769</v>
+        <v>0.06994542103048024</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.08049790443423085</v>
+        <v>0.08144620880498046</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.04000580754395501</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.05637338689538789</v>
+        <v>0.05637338689538787</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.1256450760506297</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.02174637465083629</v>
+        <v>0.0207387539994429</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.03563927925894281</v>
+        <v>0.03577519824662492</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.02290058027212557</v>
+        <v>0.0232904673800151</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.04020316411150182</v>
+        <v>0.04156344487172391</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.09547007050216487</v>
+        <v>0.09487505391785878</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.1245593031758442</v>
+        <v>0.1258555079581841</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.08502382673557915</v>
+        <v>0.08556087974824107</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1073632606518222</v>
+        <v>0.1075149358495882</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.06394025163893124</v>
+        <v>0.06356182260452592</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.09016841436960733</v>
+        <v>0.08910102520668274</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.06023727870108032</v>
+        <v>0.05978590444281357</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.07730008820638139</v>
+        <v>0.07790598096464346</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.06001485017863707</v>
+        <v>0.05832235590536301</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.08633438110503547</v>
+        <v>0.08703031305409666</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.06384328873052217</v>
+        <v>0.06354908744779494</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.07609819095018165</v>
+        <v>0.07632926587231632</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1610805042483811</v>
+        <v>0.1602120620849996</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1955700047056407</v>
+        <v>0.1938342216553898</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.144716931545365</v>
+        <v>0.1460732591301455</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1488802580085284</v>
+        <v>0.1482581461087363</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.1034300728894569</v>
+        <v>0.100289045494442</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.1324448876920447</v>
+        <v>0.1314348670291461</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.0992351964057261</v>
+        <v>0.09572980946169177</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.1044305657269515</v>
+        <v>0.1065346681544009</v>
       </c>
     </row>
     <row r="19">
@@ -1365,7 +1365,7 @@
         <v>0.133722969131651</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.1190327482382558</v>
+        <v>0.1190327482382557</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.0724266776941878</v>
@@ -1377,7 +1377,7 @@
         <v>0.08024544625120876</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>0.07306337436768286</v>
+        <v>0.07306337436768287</v>
       </c>
     </row>
     <row r="20">
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.0209029256174018</v>
+        <v>0.01967763689476582</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.02382206227157961</v>
+        <v>0.02327563256928758</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.008336796106436941</v>
+        <v>0.008624595935403993</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.01277717780065201</v>
+        <v>0.01404504322554552</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.07246217742390328</v>
+        <v>0.07334356383259771</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.09969713575117052</v>
+        <v>0.09717173061889244</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.0982527206969239</v>
+        <v>0.1033886486713879</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.09620286929953151</v>
+        <v>0.09725680210771179</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.05458752873368638</v>
+        <v>0.05374446222247195</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.06946587952830091</v>
+        <v>0.06983551863146026</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.06080608504035458</v>
+        <v>0.06113050331482303</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.06052581568843268</v>
+        <v>0.05981180485038735</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.05899638965273399</v>
+        <v>0.06426706009491986</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.07416319537042772</v>
+        <v>0.07469643214406746</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.03811236515744624</v>
+        <v>0.04341689413366886</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.04041260893959865</v>
+        <v>0.03978308159250527</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.1358394285966149</v>
+        <v>0.1365558023630468</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.1705437286851916</v>
+        <v>0.1663290560503246</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.1698148466859347</v>
+        <v>0.1755353089969098</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.1444522579602928</v>
+        <v>0.1419452239145825</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.09246061281043144</v>
+        <v>0.09259270072567533</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.1145400987243494</v>
+        <v>0.1148422011107696</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.1023357084658979</v>
+        <v>0.1031841635575993</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.08905496290530389</v>
+        <v>0.08869403908403975</v>
       </c>
     </row>
     <row r="22">
@@ -1489,7 +1489,7 @@
         <v>0.03997382149024075</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.06084076075251989</v>
+        <v>0.06084076075251987</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0.09889298071225784</v>
@@ -1513,7 +1513,7 @@
         <v>0.08742295997263907</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.08475643278125485</v>
+        <v>0.08475643278125486</v>
       </c>
     </row>
     <row r="23">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.02546837062547231</v>
+        <v>0.02506692279348852</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.02917374780772107</v>
+        <v>0.02991233509069142</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.02287839842397681</v>
+        <v>0.02133631240104159</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.04286898517305693</v>
+        <v>0.04147359276422879</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.06759551285390905</v>
+        <v>0.06902486754145047</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.08203777054902768</v>
+        <v>0.08347052152931934</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.08431953436666016</v>
+        <v>0.08663792670720145</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.08140764471786262</v>
+        <v>0.08103298549676438</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.05704612791043526</v>
+        <v>0.05717416691885756</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.06996811559915375</v>
+        <v>0.06857937840123932</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.06661166736329556</v>
+        <v>0.06640696420462955</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.0697334922587111</v>
+        <v>0.07135678255504994</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.0841626849609103</v>
+        <v>0.08611623224070462</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.09865715619256306</v>
+        <v>0.09431407235470311</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.06836275911037043</v>
+        <v>0.065905783425781</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.08775792195326053</v>
+        <v>0.08903539522970881</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.1382876978038547</v>
+        <v>0.13853479458878</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.1482798258024641</v>
+        <v>0.1500779533912947</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.1574344884194766</v>
+        <v>0.1589329640277675</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.1217645341591039</v>
+        <v>0.1230295044902172</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.1042452349146541</v>
+        <v>0.1076113667776022</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.1156679980356775</v>
+        <v>0.115719706961504</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.1146576742854671</v>
+        <v>0.1128915105588225</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.1001798227016362</v>
+        <v>0.1008095361907226</v>
       </c>
     </row>
     <row r="25">
@@ -1625,7 +1625,7 @@
         <v>0.02186187853666031</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>0.03447877504063267</v>
+        <v>0.03447877504063266</v>
       </c>
       <c r="G25" s="5" t="n">
         <v>0.06456586112839455</v>
@@ -1637,7 +1637,7 @@
         <v>0.07100815138412862</v>
       </c>
       <c r="J25" s="5" t="n">
-        <v>0.07669694002990696</v>
+        <v>0.07669694002990694</v>
       </c>
       <c r="K25" s="5" t="n">
         <v>0.04331970597573254</v>
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.01694897188657182</v>
+        <v>0.01668021194223581</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.02538995448569331</v>
+        <v>0.02515105171171897</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.01732134187047071</v>
+        <v>0.01767339873282708</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.028874175203278</v>
+        <v>0.02869012686092539</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.05669620558517999</v>
+        <v>0.0567132671622901</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.07415071258014891</v>
+        <v>0.07459121020473394</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.06229299708715007</v>
+        <v>0.06216570752465153</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.06977869451680188</v>
+        <v>0.06920088941080593</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.03867166299025256</v>
+        <v>0.03806250496946381</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.05256217387374502</v>
+        <v>0.05306928403960113</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.04175302855274349</v>
+        <v>0.04192243259504641</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.05196923747121174</v>
+        <v>0.05129042724910409</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.02677481713909925</v>
+        <v>0.02676556389797543</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.03870741165667632</v>
+        <v>0.03801009333163842</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.02792932627635689</v>
+        <v>0.02754892388969554</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.04103873602857809</v>
+        <v>0.04112993669365869</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.07336208737893515</v>
+        <v>0.07442887647006782</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.09294212985307433</v>
+        <v>0.09303465425225178</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.07968540229842778</v>
+        <v>0.08059476433475893</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.08474513491205733</v>
+        <v>0.08369801475756017</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.0483507486051948</v>
+        <v>0.04823790714918692</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.06447780230015633</v>
+        <v>0.06447346357131743</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.05252616199498613</v>
+        <v>0.05294411666640923</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.06129302740981669</v>
+        <v>0.06093205075749934</v>
       </c>
     </row>
     <row r="28">
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>809</v>
+        <v>813</v>
       </c>
       <c r="E6" s="6" t="n">
         <v>0</v>
@@ -2023,28 +2023,28 @@
         <v>0</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>4587</v>
+        <v>3923</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>979</v>
+        <v>985</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>2185</v>
+        <v>2161</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>4637</v>
+        <v>4683</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>2564</v>
+        <v>2087</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>1915</v>
+        <v>1925</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>3951</v>
+        <v>4494</v>
       </c>
     </row>
     <row r="7">
@@ -2055,40 +2055,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>4658</v>
+        <v>4773</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>7293</v>
+        <v>8809</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>7093</v>
+        <v>6272</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>10762</v>
+        <v>10010</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>16787</v>
+        <v>15499</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>8095</v>
+        <v>9096</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>7762</v>
+        <v>7714</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>19352</v>
+        <v>19736</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>16320</v>
+        <v>16130</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>12114</v>
+        <v>11920</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>11130</v>
+        <v>11067</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>21888</v>
+        <v>21512</v>
       </c>
     </row>
     <row r="8">
@@ -2191,40 +2191,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>4759</v>
+        <v>4051</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>4974</v>
+        <v>5047</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>2002</v>
+        <v>2873</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>1172</v>
+        <v>1000</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>11842</v>
+        <v>11868</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>11564</v>
+        <v>11536</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>6729</v>
+        <v>6768</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>7601</v>
+        <v>7271</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>19074</v>
+        <v>19327</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>19863</v>
+        <v>19636</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>11285</v>
+        <v>11249</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>9835</v>
+        <v>10010</v>
       </c>
     </row>
     <row r="11">
@@ -2235,40 +2235,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>16657</v>
+        <v>16009</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>21793</v>
+        <v>20739</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>11759</v>
+        <v>12756</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>11336</v>
+        <v>10595</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>30118</v>
+        <v>29469</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>30789</v>
+        <v>29580</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>19915</v>
+        <v>20348</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>22820</v>
+        <v>22698</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>40222</v>
+        <v>40387</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>43885</v>
+        <v>42222</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>27303</v>
+        <v>26927</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>29010</v>
+        <v>29719</v>
       </c>
     </row>
     <row r="12">
@@ -2371,40 +2371,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>8199</v>
+        <v>8159</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>12892</v>
+        <v>12687</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>8352</v>
+        <v>7388</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>7545</v>
+        <v>7779</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>16852</v>
+        <v>17658</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>42550</v>
+        <v>43874</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>19254</v>
+        <v>19169</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>19953</v>
+        <v>19737</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>28291</v>
+        <v>27392</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>58895</v>
+        <v>60666</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>31006</v>
+        <v>30376</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>31570</v>
+        <v>32140</v>
       </c>
     </row>
     <row r="15">
@@ -2415,40 +2415,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>23130</v>
+        <v>22732</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>33767</v>
+        <v>33541</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>22871</v>
+        <v>22396</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>26613</v>
+        <v>24814</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>37394</v>
+        <v>37434</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>72218</v>
+        <v>73398</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>39352</v>
+        <v>38952</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>36995</v>
+        <v>37319</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>53976</v>
+        <v>52843</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>97229</v>
+        <v>96484</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>56136</v>
+        <v>55762</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>56335</v>
+        <v>56816</v>
       </c>
     </row>
     <row r="16">
@@ -2551,40 +2551,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>5858</v>
+        <v>5783</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>12660</v>
+        <v>12641</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>9254</v>
+        <v>9460</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>26303</v>
+        <v>26053</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>34796</v>
+        <v>34741</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>44553</v>
+        <v>43389</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>42244</v>
+        <v>42655</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>49381</v>
+        <v>50397</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>43836</v>
+        <v>44099</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>62463</v>
+        <v>61507</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>56813</v>
+        <v>57200</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>82087</v>
+        <v>82610</v>
       </c>
     </row>
     <row r="19">
@@ -2595,40 +2595,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>20337</v>
+        <v>20387</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>31675</v>
+        <v>32582</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>25804</v>
+        <v>25939</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>52580</v>
+        <v>53988</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>60334</v>
+        <v>59539</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>73572</v>
+        <v>72237</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>71513</v>
+        <v>73206</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>73086</v>
+        <v>74148</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>72740</v>
+        <v>74369</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>97243</v>
+        <v>97172</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>91970</v>
+        <v>90588</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>115716</v>
+        <v>117079</v>
       </c>
     </row>
     <row r="20">
@@ -2731,40 +2731,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>8410</v>
+        <v>8020</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>15229</v>
+        <v>15287</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>10945</v>
+        <v>11131</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>24458</v>
+        <v>25285</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>38569</v>
+        <v>38328</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>55778</v>
+        <v>56358</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>42244</v>
+        <v>42511</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>65218</v>
+        <v>65310</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>50557</v>
+        <v>50258</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>78907</v>
+        <v>77972</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>58717</v>
+        <v>58277</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>93982</v>
+        <v>94719</v>
       </c>
     </row>
     <row r="23">
@@ -2775,40 +2775,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>23208</v>
+        <v>22554</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>36891</v>
+        <v>37188</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>30512</v>
+        <v>30371</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>46295</v>
+        <v>46436</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>65074</v>
+        <v>64723</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>87576</v>
+        <v>86799</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>71902</v>
+        <v>72576</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>90437</v>
+        <v>90059</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>81782</v>
+        <v>79298</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>115903</v>
+        <v>115019</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>96731</v>
+        <v>93314</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>126967</v>
+        <v>129526</v>
       </c>
     </row>
     <row r="24">
@@ -2911,40 +2911,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>6116</v>
+        <v>5757</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>7332</v>
+        <v>7164</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>2787</v>
+        <v>2883</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>5201</v>
+        <v>5717</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>24850</v>
+        <v>25152</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>35292</v>
+        <v>34398</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>37116</v>
+        <v>39056</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>42249</v>
+        <v>42712</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>34691</v>
+        <v>34156</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>45972</v>
+        <v>46217</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>43300</v>
+        <v>43531</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>51220</v>
+        <v>50616</v>
       </c>
     </row>
     <row r="27">
@@ -2955,40 +2955,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>17261</v>
+        <v>18803</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>22827</v>
+        <v>22991</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>12742</v>
+        <v>14516</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>16451</v>
+        <v>16195</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>46584</v>
+        <v>46830</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>60372</v>
+        <v>58880</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>64150</v>
+        <v>66311</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>63439</v>
+        <v>62338</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>58760</v>
+        <v>58844</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>75802</v>
+        <v>76002</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>72872</v>
+        <v>73477</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>75362</v>
+        <v>75057</v>
       </c>
     </row>
     <row r="28">
@@ -3091,40 +3091,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>5345</v>
+        <v>5261</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>7265</v>
+        <v>7449</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>5880</v>
+        <v>5483</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>13277</v>
+        <v>12844</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>22571</v>
+        <v>23048</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>31640</v>
+        <v>32192</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>33742</v>
+        <v>34670</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>37698</v>
+        <v>37525</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>31021</v>
+        <v>31091</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>44409</v>
+        <v>43528</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>43775</v>
+        <v>43640</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>53889</v>
+        <v>55143</v>
       </c>
     </row>
     <row r="31">
@@ -3135,40 +3135,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>17664</v>
+        <v>18074</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>24569</v>
+        <v>23488</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>17569</v>
+        <v>16938</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>27179</v>
+        <v>27575</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>46175</v>
+        <v>46258</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>57188</v>
+        <v>57881</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>63000</v>
+        <v>63600</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>56387</v>
+        <v>56972</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>56688</v>
+        <v>58518</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>73416</v>
+        <v>73448</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>75349</v>
+        <v>74189</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>77417</v>
+        <v>77904</v>
       </c>
     </row>
     <row r="32">
@@ -3271,40 +3271,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>55517</v>
+        <v>54636</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>86787</v>
+        <v>85970</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>58795</v>
+        <v>59990</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>101963</v>
+        <v>101313</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>191588</v>
+        <v>191645</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>262999</v>
+        <v>264561</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>220800</v>
+        <v>220349</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>260436</v>
+        <v>258279</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>257349</v>
+        <v>253295</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>366093</v>
+        <v>369625</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>289720</v>
+        <v>290895</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>377483</v>
+        <v>372553</v>
       </c>
     </row>
     <row r="35">
@@ -3315,40 +3315,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>87702</v>
+        <v>87671</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>132308</v>
+        <v>129924</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>94802</v>
+        <v>93511</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>144919</v>
+        <v>145241</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>247905</v>
+        <v>251510</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>329649</v>
+        <v>329977</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>282448</v>
+        <v>285672</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>316295</v>
+        <v>312387</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>321761</v>
+        <v>321010</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>449085</v>
+        <v>449055</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>364473</v>
+        <v>367374</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>445208</v>
+        <v>442586</v>
       </c>
     </row>
     <row r="36">
